--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N2">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q2">
-        <v>257.181182577458</v>
+        <v>134.4491697976172</v>
       </c>
       <c r="R2">
-        <v>2314.630643197122</v>
+        <v>1210.042528178555</v>
       </c>
       <c r="S2">
-        <v>0.0009603015672246942</v>
+        <v>0.001510857259529878</v>
       </c>
       <c r="T2">
-        <v>0.0009603015672246941</v>
+        <v>0.001510857259529878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q3">
-        <v>94.67241561442033</v>
+        <v>65.23100453693279</v>
       </c>
       <c r="R3">
-        <v>852.0517405297829</v>
+        <v>587.079040832395</v>
       </c>
       <c r="S3">
-        <v>0.0003535020259893778</v>
+        <v>0.0007330259971065876</v>
       </c>
       <c r="T3">
-        <v>0.0003535020259893778</v>
+        <v>0.0007330259971065877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N4">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q4">
-        <v>100.9844620157313</v>
+        <v>54.13504474658055</v>
       </c>
       <c r="R4">
-        <v>908.8601581415819</v>
+        <v>487.215402719225</v>
       </c>
       <c r="S4">
-        <v>0.0003770708889630454</v>
+        <v>0.0006083364105071292</v>
       </c>
       <c r="T4">
-        <v>0.0003770708889630454</v>
+        <v>0.0006083364105071293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N5">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q5">
-        <v>147.5351694048983</v>
+        <v>36.18377200269722</v>
       </c>
       <c r="R5">
-        <v>1327.816524644085</v>
+        <v>325.653948024275</v>
       </c>
       <c r="S5">
-        <v>0.0005508888830061036</v>
+        <v>0.0004066110240006695</v>
       </c>
       <c r="T5">
-        <v>0.0005508888830061035</v>
+        <v>0.0004066110240006696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N6">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q6">
-        <v>38.74026903451232</v>
+        <v>34.11262117694</v>
       </c>
       <c r="R6">
-        <v>348.6624213106109</v>
+        <v>307.01359059246</v>
       </c>
       <c r="S6">
-        <v>0.0001446542110729421</v>
+        <v>0.0003833367020737516</v>
       </c>
       <c r="T6">
-        <v>0.0001446542110729421</v>
+        <v>0.0003833367020737516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H7">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N7">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q7">
-        <v>144.280900400668</v>
+        <v>63.51762189240667</v>
       </c>
       <c r="R7">
-        <v>1298.528103606012</v>
+        <v>571.65859703166</v>
       </c>
       <c r="S7">
-        <v>0.0005387376066428263</v>
+        <v>0.0007137720544401401</v>
       </c>
       <c r="T7">
-        <v>0.0005387376066428263</v>
+        <v>0.0007137720544401403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N8">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O8">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P8">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q8">
-        <v>43.85270811756333</v>
+        <v>33.27244732204944</v>
       </c>
       <c r="R8">
-        <v>394.6743730580699</v>
+        <v>299.452025898445</v>
       </c>
       <c r="S8">
-        <v>0.000163743800811165</v>
+        <v>0.0003738953439021886</v>
       </c>
       <c r="T8">
-        <v>0.000163743800811165</v>
+        <v>0.0003738953439021886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.931899</v>
       </c>
       <c r="O9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q9">
         <v>16.14286771340056</v>
@@ -1013,10 +1013,10 @@
         <v>145.285809420605</v>
       </c>
       <c r="S9">
-        <v>6.027665402779055E-05</v>
+        <v>0.0001814036405813043</v>
       </c>
       <c r="T9">
-        <v>6.027665402779055E-05</v>
+        <v>0.0001814036405813043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N10">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q10">
-        <v>17.21915302201889</v>
+        <v>13.39692485508611</v>
       </c>
       <c r="R10">
-        <v>154.97237719817</v>
+        <v>120.572323695775</v>
       </c>
       <c r="S10">
-        <v>6.42954490978218E-05</v>
+        <v>0.0001505464199083646</v>
       </c>
       <c r="T10">
-        <v>6.42954490978218E-05</v>
+        <v>0.0001505464199083647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N11">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O11">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P11">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q11">
-        <v>25.15664892799722</v>
+        <v>8.954481828969444</v>
       </c>
       <c r="R11">
-        <v>226.409840351975</v>
+        <v>80.59033646072498</v>
       </c>
       <c r="S11">
-        <v>9.3933658557625E-05</v>
+        <v>0.0001006249714817252</v>
       </c>
       <c r="T11">
-        <v>9.393365855762499E-05</v>
+        <v>0.0001006249714817252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N12">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O12">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P12">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q12">
-        <v>6.605715446753887</v>
+        <v>8.44192933906</v>
       </c>
       <c r="R12">
-        <v>59.45143902078499</v>
+        <v>75.97736405153999</v>
       </c>
       <c r="S12">
-        <v>2.466540838090904E-05</v>
+        <v>9.486522115053702E-05</v>
       </c>
       <c r="T12">
-        <v>2.466540838090904E-05</v>
+        <v>9.486522115053703E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N13">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q13">
-        <v>24.60175409724666</v>
+        <v>15.71885294359333</v>
       </c>
       <c r="R13">
-        <v>221.41578687522</v>
+        <v>141.46967649234</v>
       </c>
       <c r="S13">
-        <v>9.186170924051603E-05</v>
+        <v>0.0001766388228135527</v>
       </c>
       <c r="T13">
-        <v>9.186170924051603E-05</v>
+        <v>0.0001766388228135527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N14">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O14">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P14">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q14">
-        <v>34040.27158071268</v>
+        <v>6241.451337358596</v>
       </c>
       <c r="R14">
-        <v>306362.4442264141</v>
+        <v>56173.06203622736</v>
       </c>
       <c r="S14">
-        <v>0.1271046575807207</v>
+        <v>0.07013759978767693</v>
       </c>
       <c r="T14">
-        <v>0.1271046575807207</v>
+        <v>0.07013759978767695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.931899</v>
       </c>
       <c r="O15">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P15">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q15">
-        <v>12530.75635790875</v>
+        <v>3028.178910417484</v>
       </c>
       <c r="R15">
-        <v>112776.8072211787</v>
+        <v>27253.61019375735</v>
       </c>
       <c r="S15">
-        <v>0.046789212369324</v>
+        <v>0.03402881621988723</v>
       </c>
       <c r="T15">
-        <v>0.046789212369324</v>
+        <v>0.03402881621988724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N16">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O16">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P16">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q16">
-        <v>13366.2131809054</v>
+        <v>2513.077975417151</v>
       </c>
       <c r="R16">
-        <v>120295.9186281486</v>
+        <v>22617.70177875436</v>
       </c>
       <c r="S16">
-        <v>0.04990876601796864</v>
+        <v>0.02824042802673326</v>
       </c>
       <c r="T16">
-        <v>0.04990876601796864</v>
+        <v>0.02824042802673327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H17">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I17">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J17">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N17">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O17">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P17">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q17">
-        <v>19527.62322623126</v>
+        <v>1679.737052276804</v>
       </c>
       <c r="R17">
-        <v>175748.6090360814</v>
+        <v>15117.63347049124</v>
       </c>
       <c r="S17">
-        <v>0.07291516043431893</v>
+        <v>0.01887585414884952</v>
       </c>
       <c r="T17">
-        <v>0.07291516043431893</v>
+        <v>0.01887585414884953</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H18">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I18">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J18">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N18">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O18">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P18">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q18">
-        <v>5127.627401928979</v>
+        <v>1583.589287952544</v>
       </c>
       <c r="R18">
-        <v>46148.64661736081</v>
+        <v>14252.30359157289</v>
       </c>
       <c r="S18">
-        <v>0.01914630215503287</v>
+        <v>0.01779540457868452</v>
       </c>
       <c r="T18">
-        <v>0.01914630215503287</v>
+        <v>0.01779540457868453</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H19">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I19">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J19">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N19">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O19">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P19">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q19">
-        <v>19096.89108793676</v>
+        <v>2948.639598912757</v>
       </c>
       <c r="R19">
-        <v>171872.0197914309</v>
+        <v>26537.75639021481</v>
       </c>
       <c r="S19">
-        <v>0.07130682834986064</v>
+        <v>0.03313500224999945</v>
       </c>
       <c r="T19">
-        <v>0.07130682834986064</v>
+        <v>0.03313500224999946</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H20">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N20">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O20">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P20">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q20">
-        <v>365.9229428657347</v>
+        <v>31.24223505791312</v>
       </c>
       <c r="R20">
-        <v>3293.306485791612</v>
+        <v>281.180115521218</v>
       </c>
       <c r="S20">
-        <v>0.001366337816770881</v>
+        <v>0.0003510810644070145</v>
       </c>
       <c r="T20">
-        <v>0.001366337816770881</v>
+        <v>0.0003510810644070144</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H21">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.931899</v>
       </c>
       <c r="O21">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P21">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q21">
-        <v>134.7019582951131</v>
+        <v>15.15786508666689</v>
       </c>
       <c r="R21">
-        <v>1212.317624656018</v>
+        <v>136.420785780002</v>
       </c>
       <c r="S21">
-        <v>0.0005029703198447401</v>
+        <v>0.0001703347855523242</v>
       </c>
       <c r="T21">
-        <v>0.00050297031984474</v>
+        <v>0.0001703347855523242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H22">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N22">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O22">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P22">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q22">
-        <v>143.6828742840858</v>
+        <v>12.57947368056778</v>
       </c>
       <c r="R22">
-        <v>1293.145868556772</v>
+        <v>113.21526312511</v>
       </c>
       <c r="S22">
-        <v>0.0005365046072793436</v>
+        <v>0.0001413604052740509</v>
       </c>
       <c r="T22">
-        <v>0.0005365046072793436</v>
+        <v>0.0001413604052740509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H23">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N23">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O23">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P23">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q23">
-        <v>209.9162264664344</v>
+        <v>8.40809885172111</v>
       </c>
       <c r="R23">
-        <v>1889.24603819791</v>
+        <v>75.67288966549</v>
       </c>
       <c r="S23">
-        <v>0.0007838166044706555</v>
+        <v>9.448505489539146E-05</v>
       </c>
       <c r="T23">
-        <v>0.0007838166044706554</v>
+        <v>9.448505489539144E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H24">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N24">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O24">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P24">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q24">
-        <v>55.12049175001177</v>
+        <v>7.926821198344</v>
       </c>
       <c r="R24">
-        <v>496.084425750106</v>
+        <v>71.341390785096</v>
       </c>
       <c r="S24">
-        <v>0.0002058171367097978</v>
+        <v>8.907675198397251E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002058171367097978</v>
+        <v>8.907675198397251E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H25">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N25">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O25">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P25">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q25">
-        <v>205.2859822200613</v>
+        <v>14.75972277455733</v>
       </c>
       <c r="R25">
-        <v>1847.573839980552</v>
+        <v>132.837504971016</v>
       </c>
       <c r="S25">
-        <v>0.0007665275059376163</v>
+        <v>0.0001658607065864056</v>
       </c>
       <c r="T25">
-        <v>0.0007665275059376163</v>
+        <v>0.0001658607065864056</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H26">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I26">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J26">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N26">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O26">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P26">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q26">
-        <v>3709.089468258415</v>
+        <v>2624.598816058669</v>
       </c>
       <c r="R26">
-        <v>33381.80521432573</v>
+        <v>23621.38934452802</v>
       </c>
       <c r="S26">
-        <v>0.01384955304135599</v>
+        <v>0.02949363079418613</v>
       </c>
       <c r="T26">
-        <v>0.01384955304135599</v>
+        <v>0.02949363079418613</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H27">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I27">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J27">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.931899</v>
       </c>
       <c r="O27">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P27">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q27">
-        <v>1365.373843338133</v>
+        <v>1273.382480052961</v>
       </c>
       <c r="R27">
-        <v>12288.3645900432</v>
+        <v>11460.44232047665</v>
       </c>
       <c r="S27">
-        <v>0.005098237081207581</v>
+        <v>0.01430949084358178</v>
       </c>
       <c r="T27">
-        <v>0.005098237081207581</v>
+        <v>0.01430949084358178</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H28">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I28">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J28">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N28">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O28">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P28">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q28">
-        <v>1456.406727609166</v>
+        <v>1056.776881278121</v>
       </c>
       <c r="R28">
-        <v>13107.66054848249</v>
+        <v>9510.991931503084</v>
       </c>
       <c r="S28">
-        <v>0.005438149280686358</v>
+        <v>0.01187541005411763</v>
       </c>
       <c r="T28">
-        <v>0.005438149280686358</v>
+        <v>0.01187541005411763</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H29">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I29">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J29">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N29">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O29">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P29">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q29">
-        <v>2127.765093671334</v>
+        <v>706.3478733395572</v>
       </c>
       <c r="R29">
-        <v>19149.88584304201</v>
+        <v>6357.130860056015</v>
       </c>
       <c r="S29">
-        <v>0.007944967565903386</v>
+        <v>0.007937503919101729</v>
       </c>
       <c r="T29">
-        <v>0.007944967565903386</v>
+        <v>0.007937503919101729</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H30">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I30">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J30">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N30">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O30">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P30">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q30">
-        <v>558.7155422233517</v>
+        <v>665.916682776284</v>
       </c>
       <c r="R30">
-        <v>5028.439880010165</v>
+        <v>5993.250144986556</v>
       </c>
       <c r="S30">
-        <v>0.002086215661086656</v>
+        <v>0.007483163011932812</v>
       </c>
       <c r="T30">
-        <v>0.002086215661086656</v>
+        <v>0.007483163011932813</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H31">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I31">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J31">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N31">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O31">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P31">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q31">
-        <v>2080.831741979341</v>
+        <v>1239.935326254631</v>
       </c>
       <c r="R31">
-        <v>18727.48567781407</v>
+        <v>11159.41793629168</v>
       </c>
       <c r="S31">
-        <v>0.007769720797328648</v>
+        <v>0.01393363225551547</v>
       </c>
       <c r="T31">
-        <v>0.00776972079732865</v>
+        <v>0.01393363225551547</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H32">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N32">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O32">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P32">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q32">
-        <v>49504.20820818219</v>
+        <v>21800.69737840979</v>
       </c>
       <c r="R32">
-        <v>445537.8738736397</v>
+        <v>196206.2764056882</v>
       </c>
       <c r="S32">
-        <v>0.1848462171691629</v>
+        <v>0.2449828581802679</v>
       </c>
       <c r="T32">
-        <v>0.1848462171691628</v>
+        <v>0.2449828581802679</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H33">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.931899</v>
       </c>
       <c r="O33">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P33">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q33">
-        <v>18223.2732860861</v>
+        <v>10577.09312552818</v>
       </c>
       <c r="R33">
-        <v>164009.4595747749</v>
+        <v>95193.83812975361</v>
       </c>
       <c r="S33">
-        <v>0.06804478353046602</v>
+        <v>0.1188588814455515</v>
       </c>
       <c r="T33">
-        <v>0.06804478353046602</v>
+        <v>0.1188588814455515</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H34">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N34">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O34">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P34">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q34">
-        <v>19438.26443022277</v>
+        <v>8777.902681462236</v>
       </c>
       <c r="R34">
-        <v>174944.3798720049</v>
+        <v>79001.12413316012</v>
       </c>
       <c r="S34">
-        <v>0.07258149919599553</v>
+        <v>0.09864068338761162</v>
       </c>
       <c r="T34">
-        <v>0.07258149919599553</v>
+        <v>0.09864068338761164</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H35">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N35">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O35">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P35">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q35">
-        <v>28398.7019231075</v>
+        <v>5867.135249905865</v>
       </c>
       <c r="R35">
-        <v>255588.3173079675</v>
+        <v>52804.21724915279</v>
       </c>
       <c r="S35">
-        <v>0.1060393209588477</v>
+        <v>0.06593126531243942</v>
       </c>
       <c r="T35">
-        <v>0.1060393209588476</v>
+        <v>0.06593126531243944</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H36">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N36">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O36">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P36">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q36">
-        <v>7457.024363545281</v>
+        <v>5531.301771384996</v>
       </c>
       <c r="R36">
-        <v>67113.21927190752</v>
+        <v>49781.71594246497</v>
       </c>
       <c r="S36">
-        <v>0.02784415294843163</v>
+        <v>0.06215737477982999</v>
       </c>
       <c r="T36">
-        <v>0.02784415294843163</v>
+        <v>0.06215737477983</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H37">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N37">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O37">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P37">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q37">
-        <v>27772.29524460826</v>
+        <v>10299.27113091892</v>
       </c>
       <c r="R37">
-        <v>249950.6572014743</v>
+        <v>92693.44017827026</v>
       </c>
       <c r="S37">
-        <v>0.1037003500082741</v>
+        <v>0.1157368883678381</v>
       </c>
       <c r="T37">
-        <v>0.1037003500082741</v>
+        <v>0.1157368883678381</v>
       </c>
     </row>
   </sheetData>
